--- a/DataBase/DB (Normalized).xlsx
+++ b/DataBase/DB (Normalized).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="204">
   <si>
     <t>ClassID</t>
   </si>
@@ -282,36 +282,9 @@
     <t>endTime</t>
   </si>
   <si>
-    <t>sessionID</t>
-  </si>
-  <si>
-    <t>sess1</t>
-  </si>
-  <si>
-    <t>sess2</t>
-  </si>
-  <si>
-    <t>sess3</t>
-  </si>
-  <si>
-    <t>sess4</t>
-  </si>
-  <si>
-    <t>sess5</t>
-  </si>
-  <si>
     <t>FacultyID</t>
   </si>
   <si>
-    <t>First Year</t>
-  </si>
-  <si>
-    <t>Second Year</t>
-  </si>
-  <si>
-    <t>Third Year</t>
-  </si>
-  <si>
     <t>Lab 1</t>
   </si>
   <si>
@@ -333,15 +306,6 @@
     <t>batchID</t>
   </si>
   <si>
-    <t>batch1</t>
-  </si>
-  <si>
-    <t>batch2</t>
-  </si>
-  <si>
-    <t>batch3</t>
-  </si>
-  <si>
     <t>Mr. Krishnanand</t>
   </si>
   <si>
@@ -643,6 +607,36 @@
   </si>
   <si>
     <t>facultyFinger TABLE</t>
+  </si>
+  <si>
+    <t>BCA FY</t>
+  </si>
+  <si>
+    <t>BCA SY</t>
+  </si>
+  <si>
+    <t>BCA TY</t>
+  </si>
+  <si>
+    <t>batch 1</t>
+  </si>
+  <si>
+    <t>batch 2</t>
+  </si>
+  <si>
+    <t>batch 3</t>
+  </si>
+  <si>
+    <t>MSCIT FY</t>
+  </si>
+  <si>
+    <t>MSCIT SY</t>
+  </si>
+  <si>
+    <t>fingerprints</t>
+  </si>
+  <si>
+    <t>Sem</t>
   </si>
 </sst>
 </file>
@@ -837,7 +831,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1091,6 +1085,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1102,7 +1135,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,9 +1211,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1248,9 +1278,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="6" applyFill="1" applyBorder="1"/>
@@ -1348,6 +1375,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1635,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD68"/>
+  <dimension ref="A1:CE68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="CB2" activeCellId="2" sqref="BU2 BX2 CB2"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="AP28" sqref="AP28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1677,133 +1726,135 @@
     <col min="35" max="35" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" style="47" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="3.88671875" customWidth="1"/>
     <col min="41" max="41" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.88671875" style="64" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="4.21875" customWidth="1"/>
-    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="3.109375" customWidth="1"/>
-    <col min="49" max="49" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.6640625" customWidth="1"/>
-    <col min="51" max="51" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="3.33203125" customWidth="1"/>
-    <col min="53" max="53" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.33203125" customWidth="1"/>
-    <col min="57" max="57" width="3.44140625" customWidth="1"/>
-    <col min="58" max="58" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="4" customWidth="1"/>
-    <col min="63" max="63" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="17.6640625" customWidth="1"/>
-    <col min="65" max="65" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="3.21875" customWidth="1"/>
-    <col min="67" max="67" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="2.77734375" customWidth="1"/>
-    <col min="73" max="73" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="3.77734375" customWidth="1"/>
-    <col min="76" max="76" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="3.33203125" customWidth="1"/>
-    <col min="80" max="80" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.21875" customWidth="1"/>
+    <col min="43" max="43" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="6.88671875" style="62" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.21875" customWidth="1"/>
+    <col min="46" max="46" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="3.109375" customWidth="1"/>
+    <col min="50" max="50" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.6640625" customWidth="1"/>
+    <col min="52" max="52" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="3.33203125" customWidth="1"/>
+    <col min="54" max="54" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.33203125" customWidth="1"/>
+    <col min="58" max="58" width="3.44140625" customWidth="1"/>
+    <col min="59" max="59" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4" customWidth="1"/>
+    <col min="64" max="64" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="17.6640625" customWidth="1"/>
+    <col min="66" max="66" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="3.21875" customWidth="1"/>
+    <col min="68" max="68" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="2.77734375" customWidth="1"/>
+    <col min="74" max="74" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="3.77734375" customWidth="1"/>
+    <col min="77" max="77" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="3.33203125" customWidth="1"/>
+    <col min="81" max="81" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:83" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="6"/>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="67"/>
+      <c r="K1" s="65"/>
       <c r="M1" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="AL1"/>
       <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1"/>
-      <c r="AS1" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="57" t="s">
+      <c r="AP1" s="1"/>
+      <c r="AR1"/>
+      <c r="AT1" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="AW1" s="56" t="s">
+      <c r="AX1" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="AX1" s="57" t="s">
+      <c r="AY1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BH1" s="65"/>
+      <c r="BL1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM1" s="1"/>
+      <c r="BP1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="BG1" s="67"/>
-      <c r="BK1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BL1" s="1"/>
-      <c r="BO1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>147</v>
+      <c r="BV1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:83" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>135</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>2</v>
@@ -1812,7 +1863,7 @@
         <v>46</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>46</v>
@@ -1829,9 +1880,9 @@
       <c r="N2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="78"/>
+      <c r="O2" s="76"/>
       <c r="P2" s="19" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>4</v>
@@ -1843,7 +1894,7 @@
         <v>83</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>1</v>
@@ -1854,143 +1905,146 @@
       <c r="Z2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="39" t="s">
+      <c r="AA2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="39" t="s">
+      <c r="AB2" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="AC2" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AC2" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD2" s="38" t="s">
         <v>52</v>
       </c>
       <c r="AF2" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AG2" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH2" s="38" t="s">
+      <c r="AG2" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH2" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="AI2" s="38" t="s">
+      <c r="AI2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK2" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL2" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM2" s="38" t="s">
+      <c r="AJ2" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL2" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM2" s="37" t="s">
         <v>81</v>
       </c>
       <c r="AO2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AP2" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AQ2" s="38" t="s">
+      <c r="AR2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="AS2" s="22" t="s">
+      <c r="AT2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AT2" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU2" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW2" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX2" s="66" t="s">
+      <c r="AU2" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV2" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX2" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY2" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="AY2" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="BA2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="BB2" s="5" t="s">
+      <c r="AZ2" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="BB2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="BC2" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="BD2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BE2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="BF2" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="BG2" s="2" t="s">
+      <c r="BG2" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BH2" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="BI2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="BK2" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="BL2" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BO2" s="18" t="s">
+      <c r="BL2" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM2" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ2" s="42" t="s">
+        <v>183</v>
+      </c>
+      <c r="BR2" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="BS2" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BV2" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="BW2" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="BP2" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="BQ2" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="BR2" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BU2" s="101" t="s">
-        <v>195</v>
-      </c>
-      <c r="BV2" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="BX2" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="BY2" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="BZ2" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="CB2" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="CC2" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="CD2" s="43" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:82" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BY2" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="BZ2" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="CA2" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="CC2" s="100" t="s">
+        <v>88</v>
+      </c>
+      <c r="CD2" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE2" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:83" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2001,28 +2055,28 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="80" t="s">
-        <v>140</v>
+        <v>194</v>
+      </c>
+      <c r="M3" s="78" t="s">
+        <v>128</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="79"/>
-      <c r="P3" s="96">
+      <c r="O3" s="77"/>
+      <c r="P3" s="94">
         <v>1</v>
       </c>
       <c r="Q3" s="4">
@@ -2034,7 +2088,7 @@
       <c r="T3" s="17">
         <v>0.33402777777777781</v>
       </c>
-      <c r="V3" s="54">
+      <c r="V3" s="53">
         <v>1</v>
       </c>
       <c r="W3" s="17">
@@ -2052,7 +2106,7 @@
       <c r="AB3" s="22">
         <v>1</v>
       </c>
-      <c r="AC3" s="95">
+      <c r="AC3" s="93">
         <v>1</v>
       </c>
       <c r="AD3" s="23">
@@ -2061,8 +2115,8 @@
       <c r="AF3" s="24">
         <v>1</v>
       </c>
-      <c r="AG3" s="55" t="s">
-        <v>86</v>
+      <c r="AG3" s="101">
+        <v>1</v>
       </c>
       <c r="AH3" s="25">
         <v>1</v>
@@ -2079,107 +2133,112 @@
       <c r="AL3" s="26">
         <v>1</v>
       </c>
-      <c r="AM3" s="91" t="s">
-        <v>140</v>
+      <c r="AM3" s="89" t="s">
+        <v>128</v>
       </c>
       <c r="AO3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AP3" s="29" t="s">
+      <c r="AP3" s="102">
+        <v>5</v>
+      </c>
+      <c r="AQ3" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AQ3" s="30">
-        <v>2</v>
-      </c>
-      <c r="AS3" s="3">
+      <c r="AR3" s="29">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="3">
         <v>0</v>
       </c>
-      <c r="AT3" s="9">
+      <c r="AU3" s="9">
         <v>82</v>
       </c>
-      <c r="AU3" s="8">
+      <c r="AV3" s="8">
         <v>2017033800107500</v>
       </c>
-      <c r="AW3" s="40">
+      <c r="AX3" s="39">
         <v>2017033800107500</v>
       </c>
-      <c r="AX3" s="3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AY3" s="14">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="9">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BC3" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD3" s="44"/>
-      <c r="BF3" s="47">
+      <c r="AZ3" s="14">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="9">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="BD3" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE3" s="43"/>
+      <c r="BG3" s="46">
         <v>2017033800107500</v>
       </c>
-      <c r="BG3" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="BH3" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="BI3" s="44"/>
-      <c r="BK3" s="47">
+      <c r="BH3" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI3" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ3" s="43"/>
+      <c r="BL3" s="46">
         <v>2017033800107500</v>
       </c>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="BO3" s="3">
-        <v>1</v>
-      </c>
-      <c r="BP3" s="44"/>
-      <c r="BQ3" s="44"/>
-      <c r="BR3" s="44"/>
-      <c r="BS3" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BU3" s="44"/>
-      <c r="BV3" s="44"/>
-      <c r="BX3" s="44"/>
-      <c r="BY3" s="44"/>
-      <c r="BZ3" s="44"/>
-      <c r="CB3" s="44"/>
-      <c r="CC3" s="44"/>
-      <c r="CD3" s="44"/>
-    </row>
-    <row r="4" spans="1:82" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BM3" s="46"/>
+      <c r="BN3" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="BP3" s="3">
+        <v>1</v>
+      </c>
+      <c r="BQ3" s="43"/>
+      <c r="BR3" s="43"/>
+      <c r="BS3" s="43"/>
+      <c r="BT3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV3" s="43"/>
+      <c r="BW3" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="BY3" s="43"/>
+      <c r="BZ3" s="43"/>
+      <c r="CA3" s="43"/>
+      <c r="CC3" s="43"/>
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+    </row>
+    <row r="4" spans="1:83" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G4" s="3">
         <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M4" s="81" t="s">
-        <v>141</v>
+        <v>195</v>
+      </c>
+      <c r="M4" s="79" t="s">
+        <v>129</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="79"/>
+      <c r="O4" s="77"/>
       <c r="P4" s="3">
         <v>2</v>
       </c>
@@ -2211,14 +2270,14 @@
       <c r="AF4" s="13">
         <v>2</v>
       </c>
-      <c r="AG4" s="17" t="s">
-        <v>87</v>
+      <c r="AG4" s="9">
+        <v>2</v>
       </c>
       <c r="AH4" s="3">
         <v>1</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3">
@@ -2227,96 +2286,101 @@
       <c r="AL4" s="26">
         <v>1</v>
       </c>
-      <c r="AM4" s="92" t="s">
-        <v>140</v>
+      <c r="AM4" s="90" t="s">
+        <v>128</v>
       </c>
       <c r="AO4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AP4" s="7" t="s">
+      <c r="AP4" s="103">
+        <v>5</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AQ4" s="31">
+      <c r="AR4" s="30">
+        <v>3</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU4" s="9">
+        <v>13</v>
+      </c>
+      <c r="AV4" s="8">
+        <v>2017033800107500</v>
+      </c>
+      <c r="AX4" s="39">
+        <v>2017033800107500</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ4" s="14">
         <v>2</v>
       </c>
-      <c r="AS4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="9">
-        <v>13</v>
-      </c>
-      <c r="AU4" s="8">
-        <v>2017033800107500</v>
-      </c>
-      <c r="AW4" s="40">
-        <v>2017033800107500</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY4" s="14">
+      <c r="BB4" s="3">
         <v>2</v>
       </c>
-      <c r="BA4" s="3">
+      <c r="BC4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="43"/>
+      <c r="BJ4" s="43"/>
+      <c r="BL4" s="43"/>
+      <c r="BM4" s="43"/>
+      <c r="BN4" s="43"/>
+      <c r="BP4" s="3">
         <v>2</v>
       </c>
-      <c r="BB4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="9"/>
-      <c r="BH4" s="44"/>
-      <c r="BI4" s="44"/>
-      <c r="BK4" s="44"/>
-      <c r="BL4" s="44"/>
-      <c r="BM4" s="44"/>
-      <c r="BO4" s="3">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="44"/>
-      <c r="BQ4" s="44"/>
-      <c r="BR4" s="44"/>
-      <c r="BS4" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BU4" s="44"/>
-      <c r="BV4" s="44"/>
-      <c r="BX4" s="44"/>
-      <c r="BY4" s="44"/>
-      <c r="BZ4" s="44"/>
-      <c r="CB4" s="44"/>
-      <c r="CC4" s="44"/>
-      <c r="CD4" s="44"/>
-    </row>
-    <row r="5" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BQ4" s="43"/>
+      <c r="BR4" s="43"/>
+      <c r="BS4" s="43"/>
+      <c r="BT4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BV4" s="43"/>
+      <c r="BW4" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="BY4" s="43"/>
+      <c r="BZ4" s="43"/>
+      <c r="CA4" s="43"/>
+      <c r="CC4" s="43"/>
+      <c r="CD4" s="43"/>
+      <c r="CE4" s="43"/>
+    </row>
+    <row r="5" spans="1:83" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7">
         <v>3</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="J5" s="3">
         <v>2</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="79"/>
-      <c r="P5" s="82">
+      <c r="O5" s="77"/>
+      <c r="P5" s="80">
         <v>3</v>
       </c>
       <c r="Q5" s="4">
@@ -2347,14 +2411,14 @@
       <c r="AF5" s="13">
         <v>3</v>
       </c>
-      <c r="AG5" s="17" t="s">
-        <v>87</v>
+      <c r="AG5" s="9">
+        <v>2</v>
       </c>
       <c r="AH5" s="3">
         <v>2</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3">
@@ -2363,53 +2427,62 @@
       <c r="AL5" s="26">
         <v>1</v>
       </c>
-      <c r="AM5" s="92" t="s">
-        <v>140</v>
+      <c r="AM5" s="90" t="s">
+        <v>128</v>
       </c>
       <c r="AO5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AP5" s="7" t="s">
+      <c r="AP5" s="103">
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AQ5" s="31">
+      <c r="AR5" s="30">
+        <v>3</v>
+      </c>
+      <c r="AT5" s="3">
         <v>2</v>
       </c>
-      <c r="AS5" s="3">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="9">
+      <c r="AU5" s="9">
         <v>50</v>
       </c>
-      <c r="AU5" s="8">
+      <c r="AV5" s="8">
         <v>2017033800107500</v>
       </c>
-      <c r="AW5" s="41">
+      <c r="AX5" s="40">
         <v>2017033800107500</v>
       </c>
-      <c r="AX5" s="28" t="s">
+      <c r="AY5" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AY5" s="16">
+      <c r="AZ5" s="16">
         <v>3</v>
       </c>
-      <c r="BA5" s="9">
+      <c r="BB5" s="9">
         <v>3</v>
       </c>
-      <c r="BB5" s="3" t="s">
+      <c r="BC5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="BC5" s="3"/>
       <c r="BD5" s="3"/>
-    </row>
-    <row r="6" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE5" s="3"/>
+    </row>
+    <row r="6" spans="1:83" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="M6" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="79"/>
+      <c r="O6" s="77"/>
       <c r="P6" s="3">
         <v>4</v>
       </c>
@@ -2441,14 +2514,14 @@
       <c r="AF6" s="13">
         <v>4</v>
       </c>
-      <c r="AG6" s="17" t="s">
-        <v>87</v>
+      <c r="AG6" s="9">
+        <v>2</v>
       </c>
       <c r="AH6" s="3">
         <v>3</v>
       </c>
       <c r="AI6" s="21" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3">
@@ -2457,41 +2530,50 @@
       <c r="AL6" s="26">
         <v>1</v>
       </c>
-      <c r="AM6" s="92" t="s">
-        <v>140</v>
+      <c r="AM6" s="90" t="s">
+        <v>128</v>
       </c>
       <c r="AO6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AP6" s="32" t="s">
+      <c r="AP6" s="104">
+        <v>5</v>
+      </c>
+      <c r="AQ6" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AQ6" s="33">
-        <v>2</v>
-      </c>
-      <c r="AS6" s="3">
+      <c r="AR6" s="32">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="3">
         <v>0</v>
       </c>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="3"/>
-      <c r="BA6" s="3">
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="3"/>
+      <c r="BB6" s="3">
         <v>4</v>
       </c>
-      <c r="BB6" s="94" t="s">
+      <c r="BC6" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="BC6" s="3"/>
       <c r="BD6" s="3"/>
-    </row>
-    <row r="7" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE6" s="3"/>
+    </row>
+    <row r="7" spans="1:83" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J7" s="3">
+        <v>4</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="M7" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="79"/>
-      <c r="P7" s="82">
+      <c r="O7" s="77"/>
+      <c r="P7" s="80">
         <v>5</v>
       </c>
       <c r="Q7" s="4">
@@ -2520,8 +2602,8 @@
       <c r="AF7" s="13">
         <v>5</v>
       </c>
-      <c r="AG7" s="17" t="s">
-        <v>88</v>
+      <c r="AG7" s="9">
+        <v>3</v>
       </c>
       <c r="AH7" s="3">
         <v>1</v>
@@ -2536,32 +2618,33 @@
       <c r="AL7" s="26">
         <v>1</v>
       </c>
-      <c r="AM7" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO7" s="34"/>
-      <c r="AP7" s="34"/>
-      <c r="AQ7" s="34"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="3"/>
-      <c r="BA7" s="9">
+      <c r="AM7" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="33"/>
+      <c r="AQ7" s="33"/>
+      <c r="AR7" s="33"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="3"/>
+      <c r="BB7" s="9">
         <v>5</v>
       </c>
-      <c r="BB7" s="3" t="s">
+      <c r="BC7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BC7" s="3"/>
       <c r="BD7" s="3"/>
-    </row>
-    <row r="8" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="BE7" s="3"/>
+    </row>
+    <row r="8" spans="1:83" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M8" s="3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="79"/>
+      <c r="O8" s="77"/>
       <c r="P8" s="3">
         <v>6</v>
       </c>
@@ -2582,8 +2665,8 @@
       <c r="AF8" s="13">
         <v>6</v>
       </c>
-      <c r="AG8" s="17" t="s">
-        <v>89</v>
+      <c r="AG8" s="9">
+        <v>4</v>
       </c>
       <c r="AH8" s="3">
         <v>1</v>
@@ -2598,35 +2681,38 @@
       <c r="AL8" s="26">
         <v>1</v>
       </c>
-      <c r="AM8" s="92" t="s">
-        <v>140</v>
+      <c r="AM8" s="90" t="s">
+        <v>128</v>
       </c>
       <c r="AO8" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="AP8" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP8" s="102">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="AQ8" s="12">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="48"/>
-      <c r="AT8" s="64"/>
-      <c r="BA8" s="3">
+      <c r="AR8" s="12">
+        <v>2</v>
+      </c>
+      <c r="AT8" s="47"/>
+      <c r="AU8" s="62"/>
+      <c r="BB8" s="3">
         <v>6</v>
       </c>
-      <c r="BB8" s="3" t="s">
+      <c r="BC8" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
-    </row>
-    <row r="9" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L9" s="58"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="82">
+      <c r="BE8" s="3"/>
+    </row>
+    <row r="9" spans="1:83" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="56"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="80">
         <v>7</v>
       </c>
       <c r="Q9" s="4">
@@ -2646,8 +2732,8 @@
       <c r="AF9" s="13">
         <v>7</v>
       </c>
-      <c r="AG9" s="17" t="s">
-        <v>89</v>
+      <c r="AG9" s="9">
+        <v>4</v>
       </c>
       <c r="AH9" s="3">
         <v>2</v>
@@ -2662,34 +2748,37 @@
       <c r="AL9" s="26">
         <v>1</v>
       </c>
-      <c r="AM9" s="92" t="s">
-        <v>140</v>
+      <c r="AM9" s="90" t="s">
+        <v>128</v>
       </c>
       <c r="AO9" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="AP9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP9" s="103">
+        <v>4</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AQ9" s="14">
-        <v>1</v>
-      </c>
-      <c r="AS9" s="48"/>
-      <c r="AT9" s="64"/>
-      <c r="BA9" s="9">
+      <c r="AR9" s="14">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="47"/>
+      <c r="AU9" s="62"/>
+      <c r="BB9" s="9">
         <v>7</v>
       </c>
-      <c r="BB9" s="94" t="s">
+      <c r="BC9" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
-    </row>
-    <row r="10" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L10" s="58"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
+      <c r="BE9" s="3"/>
+    </row>
+    <row r="10" spans="1:83" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="56"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
       <c r="P10" s="3">
         <v>8</v>
       </c>
@@ -2710,8 +2799,8 @@
       <c r="AF10" s="13">
         <v>8</v>
       </c>
-      <c r="AG10" s="17" t="s">
-        <v>89</v>
+      <c r="AG10" s="9">
+        <v>4</v>
       </c>
       <c r="AH10" s="3">
         <v>3</v>
@@ -2726,35 +2815,38 @@
       <c r="AL10" s="26">
         <v>1</v>
       </c>
-      <c r="AM10" s="92" t="s">
-        <v>140</v>
+      <c r="AM10" s="90" t="s">
+        <v>128</v>
       </c>
       <c r="AO10" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="AP10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP10" s="103">
+        <v>4</v>
+      </c>
+      <c r="AQ10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AQ10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AS10" s="48"/>
-      <c r="AT10" s="64"/>
-      <c r="BA10" s="3">
+      <c r="AR10" s="14">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="47"/>
+      <c r="AU10" s="62"/>
+      <c r="BB10" s="3">
         <v>8</v>
       </c>
-      <c r="BB10" s="94" t="s">
+      <c r="BC10" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="BC10" s="3"/>
       <c r="BD10" s="3"/>
-    </row>
-    <row r="11" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L11" s="58"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="82">
+      <c r="BE10" s="3"/>
+    </row>
+    <row r="11" spans="1:83" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="56"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="80">
         <v>9</v>
       </c>
       <c r="Q11" s="4">
@@ -2769,13 +2861,13 @@
       <c r="AF11" s="13">
         <v>9</v>
       </c>
-      <c r="AG11" s="17" t="s">
-        <v>90</v>
+      <c r="AG11" s="9">
+        <v>5</v>
       </c>
       <c r="AH11" s="3">
         <v>1</v>
       </c>
-      <c r="AI11" s="42" t="s">
+      <c r="AI11" s="41" t="s">
         <v>58</v>
       </c>
       <c r="AJ11" s="3"/>
@@ -2785,34 +2877,37 @@
       <c r="AL11" s="26">
         <v>1</v>
       </c>
-      <c r="AM11" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO11" s="35" t="s">
+      <c r="AM11" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO11" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AP11" s="3" t="s">
+      <c r="AP11" s="105">
+        <v>4</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AQ11" s="14">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="48"/>
-      <c r="AT11" s="64"/>
-      <c r="BA11" s="9">
+      <c r="AR11" s="14">
+        <v>2</v>
+      </c>
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="62"/>
+      <c r="BB11" s="9">
         <v>9</v>
       </c>
-      <c r="BB11" s="3" t="s">
+      <c r="BC11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BC11" s="3"/>
       <c r="BD11" s="3"/>
-    </row>
-    <row r="12" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L12" s="58"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
+      <c r="BE11" s="3"/>
+    </row>
+    <row r="12" spans="1:83" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="56"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
       <c r="P12" s="3">
         <v>10</v>
       </c>
@@ -2828,13 +2923,13 @@
       <c r="AF12" s="13">
         <v>10</v>
       </c>
-      <c r="AG12" s="17" t="s">
-        <v>90</v>
+      <c r="AG12" s="9">
+        <v>5</v>
       </c>
       <c r="AH12" s="3">
         <v>2</v>
       </c>
-      <c r="AI12" s="42" t="s">
+      <c r="AI12" s="41" t="s">
         <v>58</v>
       </c>
       <c r="AJ12" s="3"/>
@@ -2844,35 +2939,38 @@
       <c r="AL12" s="26">
         <v>1</v>
       </c>
-      <c r="AM12" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO12" s="35" t="s">
+      <c r="AM12" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AP12" s="3" t="s">
+      <c r="AP12" s="105">
+        <v>4</v>
+      </c>
+      <c r="AQ12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AQ12" s="14">
-        <v>1</v>
-      </c>
-      <c r="AS12" s="48"/>
-      <c r="AT12" s="64"/>
-      <c r="BA12" s="3">
+      <c r="AR12" s="14">
+        <v>2</v>
+      </c>
+      <c r="AT12" s="47"/>
+      <c r="AU12" s="62"/>
+      <c r="BB12" s="3">
         <v>10</v>
       </c>
-      <c r="BB12" s="3" t="s">
+      <c r="BC12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BC12" s="3"/>
       <c r="BD12" s="3"/>
-    </row>
-    <row r="13" spans="1:82" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L13" s="58"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="82">
+      <c r="BE12" s="3"/>
+    </row>
+    <row r="13" spans="1:83" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="56"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="80">
         <v>11</v>
       </c>
       <c r="Q13" s="4">
@@ -2887,50 +2985,53 @@
       <c r="AF13" s="13">
         <v>11</v>
       </c>
-      <c r="AG13" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH13" s="28">
+      <c r="AG13" s="9">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="27">
         <v>3</v>
       </c>
-      <c r="AI13" s="42" t="s">
+      <c r="AI13" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28">
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27">
         <v>14</v>
       </c>
       <c r="AL13" s="26">
         <v>1</v>
       </c>
-      <c r="AM13" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO13" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="AP13" s="7" t="s">
+      <c r="AM13" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO13" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP13" s="106">
+        <v>4</v>
+      </c>
+      <c r="AQ13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AQ13" s="31">
-        <v>1</v>
-      </c>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="64"/>
-      <c r="BA13" s="9">
+      <c r="AR13" s="30">
+        <v>2</v>
+      </c>
+      <c r="AT13" s="47"/>
+      <c r="AU13" s="62"/>
+      <c r="BB13" s="9">
         <v>11</v>
       </c>
-      <c r="BB13" s="94" t="s">
+      <c r="BC13" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="BC13" s="3"/>
       <c r="BD13" s="3"/>
-    </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="L14" s="58"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
+      <c r="BE13" s="3"/>
+    </row>
+    <row r="14" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="L14" s="56"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
       <c r="P14" s="3">
         <v>12</v>
       </c>
@@ -2946,44 +3047,47 @@
       <c r="AF14" s="13">
         <v>12</v>
       </c>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="83"/>
-      <c r="AI14" s="83"/>
-      <c r="AJ14" s="83"/>
-      <c r="AK14" s="83"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="81"/>
       <c r="AL14" s="26">
         <v>1</v>
       </c>
-      <c r="AM14" s="90" t="s">
-        <v>141</v>
+      <c r="AM14" s="88" t="s">
+        <v>129</v>
       </c>
       <c r="AO14" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="AP14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP14" s="103">
+        <v>3</v>
+      </c>
+      <c r="AQ14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AQ14" s="14">
-        <v>1</v>
-      </c>
-      <c r="AS14" s="48"/>
-      <c r="AT14" s="64"/>
-      <c r="BA14" s="3">
+      <c r="AR14" s="14">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="47"/>
+      <c r="AU14" s="62"/>
+      <c r="BB14" s="3">
         <v>12</v>
       </c>
-      <c r="BB14" s="3" t="s">
+      <c r="BC14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BC14" s="3"/>
       <c r="BD14" s="3"/>
-    </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
+      <c r="BE14" s="3"/>
+    </row>
+    <row r="15" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
       <c r="S15" s="3">
         <v>13</v>
       </c>
@@ -3001,32 +3105,35 @@
       <c r="AL15" s="3"/>
       <c r="AM15" s="14"/>
       <c r="AO15" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="AP15" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP15" s="103">
+        <v>3</v>
+      </c>
+      <c r="AQ15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AQ15" s="14">
-        <v>1</v>
-      </c>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="64"/>
-      <c r="BA15" s="9">
+      <c r="AR15" s="14">
+        <v>2</v>
+      </c>
+      <c r="AT15" s="47"/>
+      <c r="AU15" s="62"/>
+      <c r="BB15" s="9">
         <v>13</v>
       </c>
-      <c r="BB15" s="3" t="s">
+      <c r="BC15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BC15" s="3"/>
       <c r="BD15" s="3"/>
-    </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
+      <c r="BE15" s="3"/>
+    </row>
+    <row r="16" spans="1:83" x14ac:dyDescent="0.3">
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
       <c r="S16" s="3">
         <v>14</v>
       </c>
@@ -3044,32 +3151,35 @@
       <c r="AL16" s="3"/>
       <c r="AM16" s="14"/>
       <c r="AO16" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="AP16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP16" s="103">
+        <v>3</v>
+      </c>
+      <c r="AQ16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AQ16" s="14">
-        <v>1</v>
-      </c>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="64"/>
-      <c r="BA16" s="3">
+      <c r="AR16" s="14">
+        <v>2</v>
+      </c>
+      <c r="AT16" s="47"/>
+      <c r="AU16" s="62"/>
+      <c r="BB16" s="3">
         <v>14</v>
       </c>
-      <c r="BB16" s="3" t="s">
+      <c r="BC16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
-    </row>
-    <row r="17" spans="12:56" x14ac:dyDescent="0.3">
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
+      <c r="BE16" s="3"/>
+    </row>
+    <row r="17" spans="12:57" x14ac:dyDescent="0.3">
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
       <c r="S17" s="3">
         <v>15</v>
       </c>
@@ -3087,32 +3197,35 @@
       <c r="AL17" s="3"/>
       <c r="AM17" s="14"/>
       <c r="AO17" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="AP17" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AP17" s="103">
+        <v>3</v>
+      </c>
+      <c r="AQ17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AQ17" s="14">
-        <v>1</v>
-      </c>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="64"/>
-      <c r="BA17" s="9">
+      <c r="AR17" s="14">
+        <v>2</v>
+      </c>
+      <c r="AT17" s="47"/>
+      <c r="AU17" s="62"/>
+      <c r="BB17" s="9">
         <v>15</v>
       </c>
-      <c r="BB17" s="94" t="s">
+      <c r="BC17" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="BC17" s="3"/>
       <c r="BD17" s="3"/>
-    </row>
-    <row r="18" spans="12:56" x14ac:dyDescent="0.3">
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
+      <c r="BE17" s="3"/>
+    </row>
+    <row r="18" spans="12:57" x14ac:dyDescent="0.3">
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
       <c r="S18" s="3">
         <v>16</v>
       </c>
@@ -3130,32 +3243,35 @@
       <c r="AL18" s="3"/>
       <c r="AM18" s="14"/>
       <c r="AO18" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP18" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AP18" s="103">
+        <v>3</v>
+      </c>
+      <c r="AQ18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AQ18" s="14">
-        <v>1</v>
-      </c>
-      <c r="AS18" s="48"/>
-      <c r="AT18" s="64"/>
-      <c r="BA18" s="3">
+      <c r="AR18" s="14">
+        <v>2</v>
+      </c>
+      <c r="AT18" s="47"/>
+      <c r="AU18" s="62"/>
+      <c r="BB18" s="3">
         <v>16</v>
       </c>
-      <c r="BB18" s="3" t="s">
+      <c r="BC18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BC18" s="3"/>
       <c r="BD18" s="3"/>
-    </row>
-    <row r="19" spans="12:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
+      <c r="BE18" s="3"/>
+    </row>
+    <row r="19" spans="12:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
       <c r="S19" s="3">
         <v>17</v>
       </c>
@@ -3173,32 +3289,35 @@
       <c r="AL19" s="3"/>
       <c r="AM19" s="14"/>
       <c r="AO19" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="AP19" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="AP19" s="104">
+        <v>3</v>
+      </c>
+      <c r="AQ19" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AQ19" s="16">
-        <v>1</v>
-      </c>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="64"/>
-      <c r="BA19" s="9">
+      <c r="AR19" s="16">
+        <v>2</v>
+      </c>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="62"/>
+      <c r="BB19" s="9">
         <v>17</v>
       </c>
-      <c r="BB19" s="7" t="s">
+      <c r="BC19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="BC19" s="7"/>
       <c r="BD19" s="7"/>
-    </row>
-    <row r="20" spans="12:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
+      <c r="BE19" s="7"/>
+    </row>
+    <row r="20" spans="12:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
       <c r="S20" s="3">
         <v>18</v>
       </c>
@@ -3215,25 +3334,26 @@
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
       <c r="AM20" s="14"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AS20" s="48"/>
-      <c r="AT20" s="64"/>
-      <c r="BA20" s="3">
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="62"/>
+      <c r="BB20" s="3">
         <v>18</v>
       </c>
-      <c r="BB20" s="94" t="s">
+      <c r="BC20" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="BC20" s="7"/>
       <c r="BD20" s="7"/>
-    </row>
-    <row r="21" spans="12:56" x14ac:dyDescent="0.3">
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
+      <c r="BE20" s="7"/>
+    </row>
+    <row r="21" spans="12:57" x14ac:dyDescent="0.3">
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
       <c r="S21" s="3">
         <v>19</v>
       </c>
@@ -3253,20 +3373,23 @@
       <c r="AO21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AP21" s="25" t="s">
+      <c r="AP21" s="102">
+        <v>2</v>
+      </c>
+      <c r="AQ21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AQ21" s="12">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="48"/>
-      <c r="AT21" s="64"/>
-    </row>
-    <row r="22" spans="12:56" x14ac:dyDescent="0.3">
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
+      <c r="AR21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="47"/>
+      <c r="AU21" s="62"/>
+    </row>
+    <row r="22" spans="12:57" x14ac:dyDescent="0.3">
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
       <c r="S22" s="3">
         <v>20</v>
       </c>
@@ -3286,117 +3409,129 @@
       <c r="AO22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AP22" s="3" t="s">
+      <c r="AP22" s="103">
+        <v>2</v>
+      </c>
+      <c r="AQ22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AQ22" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="48"/>
-      <c r="AT22" s="64"/>
-    </row>
-    <row r="23" spans="12:56" x14ac:dyDescent="0.3">
+      <c r="AR22" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="47"/>
+      <c r="AU22" s="62"/>
+    </row>
+    <row r="23" spans="12:57" x14ac:dyDescent="0.3">
       <c r="S23" s="3">
         <v>21</v>
       </c>
       <c r="T23" s="17">
         <v>0.34791666666666499</v>
       </c>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="44" t="s">
-        <v>106</v>
+      <c r="Z23" s="72"/>
+      <c r="AA23" s="43" t="s">
+        <v>94</v>
       </c>
       <c r="AF23" s="13">
         <v>21</v>
       </c>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="44"/>
-      <c r="AI23" s="44"/>
-      <c r="AJ23" s="44"/>
-      <c r="AK23" s="44"/>
-      <c r="AL23" s="44"/>
-      <c r="AM23" s="59"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="43"/>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
+      <c r="AL23" s="43"/>
+      <c r="AM23" s="57"/>
       <c r="AO23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AP23" s="3" t="s">
+      <c r="AP23" s="103">
+        <v>2</v>
+      </c>
+      <c r="AQ23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AQ23" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="48"/>
-      <c r="AT23" s="64"/>
-    </row>
-    <row r="24" spans="12:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AR23" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="47"/>
+      <c r="AU23" s="62"/>
+    </row>
+    <row r="24" spans="12:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S24" s="3">
         <v>22</v>
       </c>
       <c r="T24" s="17">
         <v>0.34861111111110998</v>
       </c>
-      <c r="Z24" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA24" s="44" t="s">
-        <v>98</v>
+      <c r="Z24" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA24" s="43" t="s">
+        <v>89</v>
       </c>
       <c r="AF24" s="13">
         <v>22</v>
       </c>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="60"/>
-      <c r="AI24" s="60"/>
-      <c r="AJ24" s="60"/>
-      <c r="AK24" s="60"/>
-      <c r="AL24" s="60"/>
-      <c r="AM24" s="61"/>
+      <c r="AG24" s="58"/>
+      <c r="AH24" s="58"/>
+      <c r="AI24" s="58"/>
+      <c r="AJ24" s="58"/>
+      <c r="AK24" s="58"/>
+      <c r="AL24" s="58"/>
+      <c r="AM24" s="59"/>
       <c r="AO24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AP24" s="3" t="s">
+      <c r="AP24" s="103">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AQ24" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="48"/>
-      <c r="AT24" s="64"/>
-    </row>
-    <row r="25" spans="12:56" x14ac:dyDescent="0.3">
+      <c r="AR24" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="47"/>
+      <c r="AU24" s="62"/>
+    </row>
+    <row r="25" spans="12:57" x14ac:dyDescent="0.3">
       <c r="S25" s="3">
         <v>23</v>
       </c>
       <c r="T25" s="17">
         <v>0.34930555555555398</v>
       </c>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="44" t="s">
-        <v>109</v>
+      <c r="Z25" s="74"/>
+      <c r="AA25" s="43" t="s">
+        <v>97</v>
       </c>
       <c r="AF25" s="13">
         <v>23</v>
       </c>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="62"/>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="62"/>
-      <c r="AL25" s="62"/>
-      <c r="AM25" s="63"/>
+      <c r="AG25" s="60"/>
+      <c r="AH25" s="60"/>
+      <c r="AI25" s="60"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="60"/>
+      <c r="AL25" s="60"/>
+      <c r="AM25" s="61"/>
       <c r="AO25" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AP25" s="3" t="s">
+      <c r="AP25" s="103">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AQ25" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="48"/>
-      <c r="AT25" s="64"/>
-    </row>
-    <row r="26" spans="12:56" x14ac:dyDescent="0.3">
+      <c r="AR25" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="62"/>
+    </row>
+    <row r="26" spans="12:57" x14ac:dyDescent="0.3">
       <c r="S26" s="3">
         <v>24</v>
       </c>
@@ -3406,26 +3541,29 @@
       <c r="AF26" s="13">
         <v>24</v>
       </c>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44"/>
-      <c r="AJ26" s="44"/>
-      <c r="AK26" s="44"/>
-      <c r="AL26" s="44"/>
-      <c r="AM26" s="59"/>
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="43"/>
+      <c r="AI26" s="43"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="43"/>
+      <c r="AL26" s="43"/>
+      <c r="AM26" s="57"/>
       <c r="AO26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AP26" s="3" t="s">
+      <c r="AP26" s="103">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AQ26" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="48"/>
-      <c r="AT26" s="64"/>
-    </row>
-    <row r="27" spans="12:56" x14ac:dyDescent="0.3">
+      <c r="AR26" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="62"/>
+    </row>
+    <row r="27" spans="12:57" x14ac:dyDescent="0.3">
       <c r="S27" s="3">
         <v>25</v>
       </c>
@@ -3435,661 +3573,696 @@
       <c r="AF27" s="13">
         <v>25</v>
       </c>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="59"/>
-      <c r="AO27" s="69" t="s">
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="43"/>
+      <c r="AI27" s="43"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="43"/>
+      <c r="AM27" s="57"/>
+      <c r="AO27" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="AP27" s="7" t="s">
+      <c r="AP27" s="107">
+        <v>2</v>
+      </c>
+      <c r="AQ27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AQ27" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="48"/>
-      <c r="AT27" s="64"/>
-    </row>
-    <row r="28" spans="12:56" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AR27" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="47"/>
+      <c r="AU27" s="62"/>
+    </row>
+    <row r="28" spans="12:57" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="AF28" s="13">
         <v>26</v>
       </c>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="59"/>
-      <c r="AO28" s="45"/>
-      <c r="AP28" s="32" t="s">
+      <c r="AG28" s="43"/>
+      <c r="AH28" s="43"/>
+      <c r="AI28" s="43"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="43"/>
+      <c r="AM28" s="57"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="108"/>
+      <c r="AQ28" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="AQ28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="48"/>
-      <c r="AT28" s="64"/>
-    </row>
-    <row r="29" spans="12:56" x14ac:dyDescent="0.3">
+      <c r="AR28" s="16">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="47"/>
+      <c r="AU28" s="62"/>
+    </row>
+    <row r="29" spans="12:57" x14ac:dyDescent="0.3">
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="AF29" s="13">
         <v>27</v>
       </c>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
-      <c r="AK29" s="44"/>
-      <c r="AL29" s="44"/>
-      <c r="AM29" s="59"/>
-      <c r="AQ29"/>
-      <c r="AS29" s="48"/>
-      <c r="AT29" s="64"/>
-    </row>
-    <row r="30" spans="12:56" x14ac:dyDescent="0.3">
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="43"/>
+      <c r="AI29" s="43"/>
+      <c r="AJ29" s="43"/>
+      <c r="AK29" s="43"/>
+      <c r="AL29" s="43"/>
+      <c r="AM29" s="57"/>
+      <c r="AR29"/>
+      <c r="AT29" s="47"/>
+      <c r="AU29" s="62"/>
+    </row>
+    <row r="30" spans="12:57" x14ac:dyDescent="0.3">
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="AF30" s="13">
         <v>28</v>
       </c>
-      <c r="AG30" s="44"/>
-      <c r="AH30" s="44"/>
-      <c r="AI30" s="44"/>
-      <c r="AJ30" s="44"/>
-      <c r="AK30" s="44"/>
-      <c r="AL30" s="44"/>
-      <c r="AM30" s="59"/>
-      <c r="AQ30"/>
-      <c r="AS30" s="48"/>
-      <c r="AT30" s="64"/>
-    </row>
-    <row r="31" spans="12:56" x14ac:dyDescent="0.3">
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="43"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="43"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="43"/>
+      <c r="AM30" s="57"/>
+      <c r="AR30"/>
+      <c r="AT30" s="47"/>
+      <c r="AU30" s="62"/>
+    </row>
+    <row r="31" spans="12:57" x14ac:dyDescent="0.3">
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="AF31" s="13">
         <v>29</v>
       </c>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="44"/>
-      <c r="AI31" s="44"/>
-      <c r="AJ31" s="44"/>
-      <c r="AK31" s="44"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="59"/>
-      <c r="AQ31"/>
-      <c r="AS31" s="48"/>
-      <c r="AT31" s="64"/>
-    </row>
-    <row r="32" spans="12:56" x14ac:dyDescent="0.3">
+      <c r="AG31" s="43"/>
+      <c r="AH31" s="43"/>
+      <c r="AI31" s="43"/>
+      <c r="AJ31" s="43"/>
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="43"/>
+      <c r="AM31" s="57"/>
+      <c r="AR31"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="62"/>
+    </row>
+    <row r="32" spans="12:57" x14ac:dyDescent="0.3">
       <c r="AF32" s="13">
         <v>30</v>
       </c>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="44"/>
-      <c r="AI32" s="44"/>
-      <c r="AJ32" s="44"/>
-      <c r="AK32" s="44"/>
-      <c r="AL32" s="44"/>
-      <c r="AM32" s="59"/>
-      <c r="AP32" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ32"/>
-      <c r="AS32" s="48"/>
-      <c r="AT32" s="64"/>
-    </row>
-    <row r="33" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="43"/>
+      <c r="AJ32" s="43"/>
+      <c r="AK32" s="43"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="57"/>
+      <c r="AQ32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR32"/>
+      <c r="AT32" s="47"/>
+      <c r="AU32" s="62"/>
+    </row>
+    <row r="33" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF33" s="13">
         <v>31</v>
       </c>
-      <c r="AG33" s="44"/>
-      <c r="AH33" s="44"/>
-      <c r="AI33" s="44"/>
-      <c r="AJ33" s="44"/>
-      <c r="AK33" s="44"/>
-      <c r="AL33" s="44"/>
-      <c r="AM33" s="59"/>
-      <c r="AQ33"/>
-      <c r="AS33" s="48"/>
-      <c r="AT33" s="64"/>
-    </row>
-    <row r="34" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG33" s="43"/>
+      <c r="AH33" s="43"/>
+      <c r="AI33" s="43"/>
+      <c r="AJ33" s="43"/>
+      <c r="AK33" s="43"/>
+      <c r="AL33" s="43"/>
+      <c r="AM33" s="57"/>
+      <c r="AR33"/>
+      <c r="AT33" s="47"/>
+      <c r="AU33" s="62"/>
+    </row>
+    <row r="34" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF34" s="13">
         <v>32</v>
       </c>
-      <c r="AG34" s="44"/>
-      <c r="AH34" s="44"/>
-      <c r="AI34" s="44"/>
-      <c r="AJ34" s="44"/>
-      <c r="AK34" s="44"/>
-      <c r="AL34" s="44"/>
-      <c r="AM34" s="59"/>
-      <c r="AQ34"/>
-      <c r="AS34" s="48"/>
-      <c r="AT34" s="64"/>
-    </row>
-    <row r="35" spans="32:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AG34" s="43"/>
+      <c r="AH34" s="43"/>
+      <c r="AI34" s="43"/>
+      <c r="AJ34" s="43"/>
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="43"/>
+      <c r="AM34" s="57"/>
+      <c r="AR34"/>
+      <c r="AT34" s="47"/>
+      <c r="AU34" s="62"/>
+    </row>
+    <row r="35" spans="32:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF35" s="13">
         <v>33</v>
       </c>
-      <c r="AG35" s="60"/>
-      <c r="AH35" s="60"/>
-      <c r="AI35" s="60"/>
-      <c r="AJ35" s="60"/>
-      <c r="AK35" s="60"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="61"/>
-      <c r="AQ35"/>
-      <c r="AS35" s="48"/>
-      <c r="AT35" s="64"/>
-    </row>
-    <row r="36" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG35" s="58"/>
+      <c r="AH35" s="58"/>
+      <c r="AI35" s="58"/>
+      <c r="AJ35" s="58"/>
+      <c r="AK35" s="58"/>
+      <c r="AL35" s="58"/>
+      <c r="AM35" s="59"/>
+      <c r="AR35"/>
+      <c r="AT35" s="47"/>
+      <c r="AU35" s="62"/>
+    </row>
+    <row r="36" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF36" s="13">
         <v>34</v>
       </c>
-      <c r="AG36" s="62"/>
-      <c r="AH36" s="62"/>
-      <c r="AI36" s="62"/>
-      <c r="AJ36" s="62"/>
-      <c r="AK36" s="62"/>
-      <c r="AL36" s="62"/>
-      <c r="AM36" s="63"/>
-      <c r="AQ36"/>
-      <c r="AS36" s="48"/>
-      <c r="AT36" s="64"/>
-    </row>
-    <row r="37" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG36" s="60"/>
+      <c r="AH36" s="60"/>
+      <c r="AI36" s="60"/>
+      <c r="AJ36" s="60"/>
+      <c r="AK36" s="60"/>
+      <c r="AL36" s="60"/>
+      <c r="AM36" s="61"/>
+      <c r="AR36"/>
+      <c r="AT36" s="47"/>
+      <c r="AU36" s="62"/>
+    </row>
+    <row r="37" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF37" s="13">
         <v>35</v>
       </c>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
-      <c r="AM37" s="59"/>
-      <c r="AQ37"/>
-      <c r="AS37" s="48"/>
-      <c r="AT37" s="64"/>
-    </row>
-    <row r="38" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG37" s="43"/>
+      <c r="AH37" s="43"/>
+      <c r="AI37" s="43"/>
+      <c r="AJ37" s="43"/>
+      <c r="AK37" s="43"/>
+      <c r="AL37" s="43"/>
+      <c r="AM37" s="57"/>
+      <c r="AR37"/>
+      <c r="AT37" s="47"/>
+      <c r="AU37" s="62"/>
+    </row>
+    <row r="38" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF38" s="13">
         <v>36</v>
       </c>
-      <c r="AG38" s="44"/>
-      <c r="AH38" s="44"/>
-      <c r="AI38" s="44"/>
-      <c r="AJ38" s="44"/>
-      <c r="AK38" s="44"/>
-      <c r="AL38" s="44"/>
-      <c r="AM38" s="59"/>
-      <c r="AO38" s="48"/>
-      <c r="AQ38"/>
-      <c r="AT38" s="64"/>
-    </row>
-    <row r="39" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG38" s="43"/>
+      <c r="AH38" s="43"/>
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="43"/>
+      <c r="AL38" s="43"/>
+      <c r="AM38" s="57"/>
+      <c r="AO38" s="47"/>
+      <c r="AP38" s="47"/>
+      <c r="AR38"/>
+      <c r="AU38" s="62"/>
+    </row>
+    <row r="39" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF39" s="13">
         <v>37</v>
       </c>
-      <c r="AG39" s="44"/>
-      <c r="AH39" s="44"/>
-      <c r="AI39" s="44"/>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="59"/>
-      <c r="AO39" s="48"/>
-      <c r="AQ39"/>
-      <c r="AT39" s="64"/>
-    </row>
-    <row r="40" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG39" s="43"/>
+      <c r="AH39" s="43"/>
+      <c r="AI39" s="43"/>
+      <c r="AJ39" s="43"/>
+      <c r="AK39" s="43"/>
+      <c r="AL39" s="43"/>
+      <c r="AM39" s="57"/>
+      <c r="AO39" s="47"/>
+      <c r="AP39" s="47"/>
+      <c r="AR39"/>
+      <c r="AU39" s="62"/>
+    </row>
+    <row r="40" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF40" s="13">
         <v>38</v>
       </c>
-      <c r="AG40" s="44"/>
-      <c r="AH40" s="44"/>
-      <c r="AI40" s="44"/>
-      <c r="AJ40" s="44"/>
-      <c r="AK40" s="44"/>
-      <c r="AL40" s="44"/>
-      <c r="AM40" s="59"/>
-      <c r="AO40" s="48"/>
-      <c r="AQ40"/>
-      <c r="AT40" s="64"/>
-    </row>
-    <row r="41" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG40" s="43"/>
+      <c r="AH40" s="43"/>
+      <c r="AI40" s="43"/>
+      <c r="AJ40" s="43"/>
+      <c r="AK40" s="43"/>
+      <c r="AL40" s="43"/>
+      <c r="AM40" s="57"/>
+      <c r="AO40" s="47"/>
+      <c r="AP40" s="47"/>
+      <c r="AR40"/>
+      <c r="AU40" s="62"/>
+    </row>
+    <row r="41" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF41" s="13">
         <v>39</v>
       </c>
-      <c r="AG41" s="44"/>
-      <c r="AH41" s="44"/>
-      <c r="AI41" s="44"/>
-      <c r="AJ41" s="44"/>
-      <c r="AK41" s="44"/>
-      <c r="AL41" s="44"/>
-      <c r="AM41" s="59"/>
-      <c r="AO41" s="48"/>
-      <c r="AQ41"/>
-      <c r="AT41" s="64"/>
-    </row>
-    <row r="42" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG41" s="43"/>
+      <c r="AH41" s="43"/>
+      <c r="AI41" s="43"/>
+      <c r="AJ41" s="43"/>
+      <c r="AK41" s="43"/>
+      <c r="AL41" s="43"/>
+      <c r="AM41" s="57"/>
+      <c r="AO41" s="47"/>
+      <c r="AP41" s="47"/>
+      <c r="AR41"/>
+      <c r="AU41" s="62"/>
+    </row>
+    <row r="42" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF42" s="13">
         <v>40</v>
       </c>
-      <c r="AG42" s="44"/>
-      <c r="AH42" s="44"/>
-      <c r="AI42" s="44"/>
-      <c r="AJ42" s="44"/>
-      <c r="AK42" s="44"/>
-      <c r="AL42" s="44"/>
-      <c r="AM42" s="59"/>
-      <c r="AO42" s="48"/>
-      <c r="AQ42"/>
-      <c r="AT42" s="64"/>
-    </row>
-    <row r="43" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG42" s="43"/>
+      <c r="AH42" s="43"/>
+      <c r="AI42" s="43"/>
+      <c r="AJ42" s="43"/>
+      <c r="AK42" s="43"/>
+      <c r="AL42" s="43"/>
+      <c r="AM42" s="57"/>
+      <c r="AO42" s="47"/>
+      <c r="AP42" s="47"/>
+      <c r="AR42"/>
+      <c r="AU42" s="62"/>
+    </row>
+    <row r="43" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF43" s="13">
         <v>41</v>
       </c>
-      <c r="AG43" s="44"/>
-      <c r="AH43" s="44"/>
-      <c r="AI43" s="44"/>
-      <c r="AJ43" s="44"/>
-      <c r="AK43" s="44"/>
-      <c r="AL43" s="44"/>
-      <c r="AM43" s="59"/>
-      <c r="AO43" s="48"/>
-      <c r="AQ43"/>
-      <c r="AT43" s="64"/>
-    </row>
-    <row r="44" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG43" s="43"/>
+      <c r="AH43" s="43"/>
+      <c r="AI43" s="43"/>
+      <c r="AJ43" s="43"/>
+      <c r="AK43" s="43"/>
+      <c r="AL43" s="43"/>
+      <c r="AM43" s="57"/>
+      <c r="AO43" s="47"/>
+      <c r="AP43" s="47"/>
+      <c r="AR43"/>
+      <c r="AU43" s="62"/>
+    </row>
+    <row r="44" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF44" s="13">
         <v>42</v>
       </c>
-      <c r="AG44" s="44"/>
-      <c r="AH44" s="44"/>
-      <c r="AI44" s="44"/>
-      <c r="AJ44" s="44"/>
-      <c r="AK44" s="44"/>
-      <c r="AL44" s="44"/>
-      <c r="AM44" s="59"/>
-      <c r="AO44" s="48"/>
-      <c r="AQ44"/>
-      <c r="AT44" s="64"/>
-    </row>
-    <row r="45" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG44" s="43"/>
+      <c r="AH44" s="43"/>
+      <c r="AI44" s="43"/>
+      <c r="AJ44" s="43"/>
+      <c r="AK44" s="43"/>
+      <c r="AL44" s="43"/>
+      <c r="AM44" s="57"/>
+      <c r="AO44" s="47"/>
+      <c r="AP44" s="47"/>
+      <c r="AR44"/>
+      <c r="AU44" s="62"/>
+    </row>
+    <row r="45" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF45" s="13">
         <v>43</v>
       </c>
-      <c r="AG45" s="44"/>
-      <c r="AH45" s="44"/>
-      <c r="AI45" s="44"/>
-      <c r="AJ45" s="44"/>
-      <c r="AK45" s="44"/>
-      <c r="AL45" s="44"/>
-      <c r="AM45" s="59"/>
-      <c r="AO45" s="48"/>
-      <c r="AQ45"/>
-      <c r="AT45" s="64"/>
-    </row>
-    <row r="46" spans="32:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AG45" s="43"/>
+      <c r="AH45" s="43"/>
+      <c r="AI45" s="43"/>
+      <c r="AJ45" s="43"/>
+      <c r="AK45" s="43"/>
+      <c r="AL45" s="43"/>
+      <c r="AM45" s="57"/>
+      <c r="AO45" s="47"/>
+      <c r="AP45" s="47"/>
+      <c r="AR45"/>
+      <c r="AU45" s="62"/>
+    </row>
+    <row r="46" spans="32:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF46" s="13">
         <v>44</v>
       </c>
-      <c r="AG46" s="60"/>
-      <c r="AH46" s="60"/>
-      <c r="AI46" s="60"/>
-      <c r="AJ46" s="60"/>
-      <c r="AK46" s="60"/>
-      <c r="AL46" s="60"/>
-      <c r="AM46" s="61"/>
-      <c r="AO46" s="48"/>
-      <c r="AQ46"/>
-      <c r="AT46" s="64"/>
-    </row>
-    <row r="47" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG46" s="58"/>
+      <c r="AH46" s="58"/>
+      <c r="AI46" s="58"/>
+      <c r="AJ46" s="58"/>
+      <c r="AK46" s="58"/>
+      <c r="AL46" s="58"/>
+      <c r="AM46" s="59"/>
+      <c r="AO46" s="47"/>
+      <c r="AP46" s="47"/>
+      <c r="AR46"/>
+      <c r="AU46" s="62"/>
+    </row>
+    <row r="47" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF47" s="13">
         <v>45</v>
       </c>
-      <c r="AG47" s="62"/>
-      <c r="AH47" s="62"/>
-      <c r="AI47" s="62"/>
-      <c r="AJ47" s="62"/>
-      <c r="AK47" s="62"/>
-      <c r="AL47" s="62"/>
-      <c r="AM47" s="63"/>
-      <c r="AO47" s="48"/>
-      <c r="AQ47"/>
-      <c r="AT47" s="64"/>
-    </row>
-    <row r="48" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG47" s="60"/>
+      <c r="AH47" s="60"/>
+      <c r="AI47" s="60"/>
+      <c r="AJ47" s="60"/>
+      <c r="AK47" s="60"/>
+      <c r="AL47" s="60"/>
+      <c r="AM47" s="61"/>
+      <c r="AO47" s="47"/>
+      <c r="AP47" s="47"/>
+      <c r="AR47"/>
+      <c r="AU47" s="62"/>
+    </row>
+    <row r="48" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF48" s="13">
         <v>46</v>
       </c>
-      <c r="AG48" s="44"/>
-      <c r="AH48" s="44"/>
-      <c r="AI48" s="44"/>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="59"/>
-      <c r="AO48" s="48"/>
-      <c r="AQ48"/>
-      <c r="AT48" s="64"/>
-    </row>
-    <row r="49" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG48" s="43"/>
+      <c r="AH48" s="43"/>
+      <c r="AI48" s="43"/>
+      <c r="AJ48" s="43"/>
+      <c r="AK48" s="43"/>
+      <c r="AL48" s="43"/>
+      <c r="AM48" s="57"/>
+      <c r="AO48" s="47"/>
+      <c r="AP48" s="47"/>
+      <c r="AR48"/>
+      <c r="AU48" s="62"/>
+    </row>
+    <row r="49" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF49" s="13">
         <v>47</v>
       </c>
-      <c r="AG49" s="44"/>
-      <c r="AH49" s="44"/>
-      <c r="AI49" s="44"/>
-      <c r="AJ49" s="44"/>
-      <c r="AK49" s="44"/>
-      <c r="AL49" s="44"/>
-      <c r="AM49" s="59"/>
-      <c r="AO49" s="48"/>
-      <c r="AQ49"/>
-      <c r="AT49" s="64"/>
-    </row>
-    <row r="50" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG49" s="43"/>
+      <c r="AH49" s="43"/>
+      <c r="AI49" s="43"/>
+      <c r="AJ49" s="43"/>
+      <c r="AK49" s="43"/>
+      <c r="AL49" s="43"/>
+      <c r="AM49" s="57"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="47"/>
+      <c r="AR49"/>
+      <c r="AU49" s="62"/>
+    </row>
+    <row r="50" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF50" s="13">
         <v>48</v>
       </c>
-      <c r="AG50" s="44"/>
-      <c r="AH50" s="44"/>
-      <c r="AI50" s="44"/>
-      <c r="AJ50" s="44"/>
-      <c r="AK50" s="44"/>
-      <c r="AL50" s="44"/>
-      <c r="AM50" s="59"/>
-      <c r="AO50" s="48"/>
-      <c r="AQ50"/>
-      <c r="AT50" s="64"/>
-    </row>
-    <row r="51" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG50" s="43"/>
+      <c r="AH50" s="43"/>
+      <c r="AI50" s="43"/>
+      <c r="AJ50" s="43"/>
+      <c r="AK50" s="43"/>
+      <c r="AL50" s="43"/>
+      <c r="AM50" s="57"/>
+      <c r="AO50" s="47"/>
+      <c r="AP50" s="47"/>
+      <c r="AR50"/>
+      <c r="AU50" s="62"/>
+    </row>
+    <row r="51" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF51" s="13">
         <v>49</v>
       </c>
-      <c r="AG51" s="44"/>
-      <c r="AH51" s="44"/>
-      <c r="AI51" s="44"/>
-      <c r="AJ51" s="44"/>
-      <c r="AK51" s="44"/>
-      <c r="AL51" s="44"/>
-      <c r="AM51" s="59"/>
-      <c r="AO51" s="48"/>
-      <c r="AQ51"/>
-      <c r="AT51" s="64"/>
-    </row>
-    <row r="52" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG51" s="43"/>
+      <c r="AH51" s="43"/>
+      <c r="AI51" s="43"/>
+      <c r="AJ51" s="43"/>
+      <c r="AK51" s="43"/>
+      <c r="AL51" s="43"/>
+      <c r="AM51" s="57"/>
+      <c r="AO51" s="47"/>
+      <c r="AP51" s="47"/>
+      <c r="AR51"/>
+      <c r="AU51" s="62"/>
+    </row>
+    <row r="52" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF52" s="13">
         <v>50</v>
       </c>
-      <c r="AG52" s="44"/>
-      <c r="AH52" s="44"/>
-      <c r="AI52" s="44"/>
-      <c r="AJ52" s="44"/>
-      <c r="AK52" s="44"/>
-      <c r="AL52" s="44"/>
-      <c r="AM52" s="59"/>
-      <c r="AO52" s="48"/>
-      <c r="AQ52"/>
-      <c r="AT52" s="64"/>
-    </row>
-    <row r="53" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG52" s="43"/>
+      <c r="AH52" s="43"/>
+      <c r="AI52" s="43"/>
+      <c r="AJ52" s="43"/>
+      <c r="AK52" s="43"/>
+      <c r="AL52" s="43"/>
+      <c r="AM52" s="57"/>
+      <c r="AO52" s="47"/>
+      <c r="AP52" s="47"/>
+      <c r="AR52"/>
+      <c r="AU52" s="62"/>
+    </row>
+    <row r="53" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF53" s="13">
         <v>51</v>
       </c>
-      <c r="AG53" s="44"/>
-      <c r="AH53" s="44"/>
-      <c r="AI53" s="44"/>
-      <c r="AJ53" s="44"/>
-      <c r="AK53" s="44"/>
-      <c r="AL53" s="44"/>
-      <c r="AM53" s="59"/>
-      <c r="AO53" s="48"/>
-      <c r="AQ53"/>
-      <c r="AT53" s="64"/>
-    </row>
-    <row r="54" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG53" s="43"/>
+      <c r="AH53" s="43"/>
+      <c r="AI53" s="43"/>
+      <c r="AJ53" s="43"/>
+      <c r="AK53" s="43"/>
+      <c r="AL53" s="43"/>
+      <c r="AM53" s="57"/>
+      <c r="AO53" s="47"/>
+      <c r="AP53" s="47"/>
+      <c r="AR53"/>
+      <c r="AU53" s="62"/>
+    </row>
+    <row r="54" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF54" s="13">
         <v>52</v>
       </c>
-      <c r="AG54" s="44"/>
-      <c r="AH54" s="44"/>
-      <c r="AI54" s="44"/>
-      <c r="AJ54" s="44"/>
-      <c r="AK54" s="44"/>
-      <c r="AL54" s="44"/>
-      <c r="AM54" s="59"/>
-      <c r="AO54" s="48"/>
-      <c r="AQ54"/>
-      <c r="AT54" s="64"/>
-    </row>
-    <row r="55" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG54" s="43"/>
+      <c r="AH54" s="43"/>
+      <c r="AI54" s="43"/>
+      <c r="AJ54" s="43"/>
+      <c r="AK54" s="43"/>
+      <c r="AL54" s="43"/>
+      <c r="AM54" s="57"/>
+      <c r="AO54" s="47"/>
+      <c r="AP54" s="47"/>
+      <c r="AR54"/>
+      <c r="AU54" s="62"/>
+    </row>
+    <row r="55" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF55" s="13">
         <v>53</v>
       </c>
-      <c r="AG55" s="44"/>
-      <c r="AH55" s="44"/>
-      <c r="AI55" s="44"/>
-      <c r="AJ55" s="44"/>
-      <c r="AK55" s="44"/>
-      <c r="AL55" s="44"/>
-      <c r="AM55" s="59"/>
-      <c r="AO55" s="48"/>
-      <c r="AQ55"/>
-      <c r="AT55" s="64"/>
-    </row>
-    <row r="56" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG55" s="43"/>
+      <c r="AH55" s="43"/>
+      <c r="AI55" s="43"/>
+      <c r="AJ55" s="43"/>
+      <c r="AK55" s="43"/>
+      <c r="AL55" s="43"/>
+      <c r="AM55" s="57"/>
+      <c r="AO55" s="47"/>
+      <c r="AP55" s="47"/>
+      <c r="AR55"/>
+      <c r="AU55" s="62"/>
+    </row>
+    <row r="56" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF56" s="13">
         <v>54</v>
       </c>
-      <c r="AG56" s="44"/>
-      <c r="AH56" s="44"/>
-      <c r="AI56" s="44"/>
-      <c r="AJ56" s="44"/>
-      <c r="AK56" s="44"/>
-      <c r="AL56" s="44"/>
-      <c r="AM56" s="59"/>
-      <c r="AO56" s="48"/>
-      <c r="AQ56"/>
-      <c r="AT56" s="64"/>
-    </row>
-    <row r="57" spans="32:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AG56" s="43"/>
+      <c r="AH56" s="43"/>
+      <c r="AI56" s="43"/>
+      <c r="AJ56" s="43"/>
+      <c r="AK56" s="43"/>
+      <c r="AL56" s="43"/>
+      <c r="AM56" s="57"/>
+      <c r="AO56" s="47"/>
+      <c r="AP56" s="47"/>
+      <c r="AR56"/>
+      <c r="AU56" s="62"/>
+    </row>
+    <row r="57" spans="32:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF57" s="13">
         <v>55</v>
       </c>
-      <c r="AG57" s="60"/>
-      <c r="AH57" s="60"/>
-      <c r="AI57" s="60"/>
-      <c r="AJ57" s="60"/>
-      <c r="AK57" s="60"/>
-      <c r="AL57" s="60"/>
-      <c r="AM57" s="61"/>
-      <c r="AO57" s="48"/>
-      <c r="AQ57"/>
-      <c r="AT57" s="64"/>
-    </row>
-    <row r="58" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG57" s="58"/>
+      <c r="AH57" s="58"/>
+      <c r="AI57" s="58"/>
+      <c r="AJ57" s="58"/>
+      <c r="AK57" s="58"/>
+      <c r="AL57" s="58"/>
+      <c r="AM57" s="59"/>
+      <c r="AO57" s="47"/>
+      <c r="AP57" s="47"/>
+      <c r="AR57"/>
+      <c r="AU57" s="62"/>
+    </row>
+    <row r="58" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF58" s="13">
         <v>56</v>
       </c>
-      <c r="AG58" s="62"/>
-      <c r="AH58" s="62"/>
-      <c r="AI58" s="62"/>
-      <c r="AJ58" s="62"/>
-      <c r="AK58" s="62"/>
-      <c r="AL58" s="62"/>
-      <c r="AM58" s="63"/>
-      <c r="AO58" s="48"/>
-      <c r="AQ58"/>
-      <c r="AT58" s="64"/>
-    </row>
-    <row r="59" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG58" s="60"/>
+      <c r="AH58" s="60"/>
+      <c r="AI58" s="60"/>
+      <c r="AJ58" s="60"/>
+      <c r="AK58" s="60"/>
+      <c r="AL58" s="60"/>
+      <c r="AM58" s="61"/>
+      <c r="AO58" s="47"/>
+      <c r="AP58" s="47"/>
+      <c r="AR58"/>
+      <c r="AU58" s="62"/>
+    </row>
+    <row r="59" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF59" s="13">
         <v>57</v>
       </c>
-      <c r="AG59" s="44"/>
-      <c r="AH59" s="44"/>
-      <c r="AI59" s="44"/>
-      <c r="AJ59" s="44"/>
-      <c r="AK59" s="44"/>
-      <c r="AL59" s="44"/>
-      <c r="AM59" s="59"/>
-      <c r="AO59" s="48"/>
-      <c r="AQ59"/>
-      <c r="AT59" s="64"/>
-    </row>
-    <row r="60" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG59" s="43"/>
+      <c r="AH59" s="43"/>
+      <c r="AI59" s="43"/>
+      <c r="AJ59" s="43"/>
+      <c r="AK59" s="43"/>
+      <c r="AL59" s="43"/>
+      <c r="AM59" s="57"/>
+      <c r="AO59" s="47"/>
+      <c r="AP59" s="47"/>
+      <c r="AR59"/>
+      <c r="AU59" s="62"/>
+    </row>
+    <row r="60" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF60" s="13">
         <v>58</v>
       </c>
-      <c r="AG60" s="44"/>
-      <c r="AH60" s="44"/>
-      <c r="AI60" s="44"/>
-      <c r="AJ60" s="44"/>
-      <c r="AK60" s="44"/>
-      <c r="AL60" s="44"/>
-      <c r="AM60" s="59"/>
-      <c r="AO60" s="48"/>
-      <c r="AQ60"/>
-      <c r="AT60" s="64"/>
-    </row>
-    <row r="61" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG60" s="43"/>
+      <c r="AH60" s="43"/>
+      <c r="AI60" s="43"/>
+      <c r="AJ60" s="43"/>
+      <c r="AK60" s="43"/>
+      <c r="AL60" s="43"/>
+      <c r="AM60" s="57"/>
+      <c r="AO60" s="47"/>
+      <c r="AP60" s="47"/>
+      <c r="AR60"/>
+      <c r="AU60" s="62"/>
+    </row>
+    <row r="61" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF61" s="13">
         <v>59</v>
       </c>
-      <c r="AG61" s="44"/>
-      <c r="AH61" s="44"/>
-      <c r="AI61" s="44"/>
-      <c r="AJ61" s="44"/>
-      <c r="AK61" s="44"/>
-      <c r="AL61" s="44"/>
-      <c r="AM61" s="59"/>
-      <c r="AO61" s="48"/>
-      <c r="AQ61"/>
-      <c r="AT61" s="64"/>
-    </row>
-    <row r="62" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG61" s="43"/>
+      <c r="AH61" s="43"/>
+      <c r="AI61" s="43"/>
+      <c r="AJ61" s="43"/>
+      <c r="AK61" s="43"/>
+      <c r="AL61" s="43"/>
+      <c r="AM61" s="57"/>
+      <c r="AO61" s="47"/>
+      <c r="AP61" s="47"/>
+      <c r="AR61"/>
+      <c r="AU61" s="62"/>
+    </row>
+    <row r="62" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF62" s="13">
         <v>60</v>
       </c>
-      <c r="AG62" s="44"/>
-      <c r="AH62" s="44"/>
-      <c r="AI62" s="44"/>
-      <c r="AJ62" s="44"/>
-      <c r="AK62" s="44"/>
-      <c r="AL62" s="44"/>
-      <c r="AM62" s="59"/>
-      <c r="AO62" s="48"/>
-      <c r="AQ62"/>
-      <c r="AT62" s="64"/>
-    </row>
-    <row r="63" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG62" s="43"/>
+      <c r="AH62" s="43"/>
+      <c r="AI62" s="43"/>
+      <c r="AJ62" s="43"/>
+      <c r="AK62" s="43"/>
+      <c r="AL62" s="43"/>
+      <c r="AM62" s="57"/>
+      <c r="AO62" s="47"/>
+      <c r="AP62" s="47"/>
+      <c r="AR62"/>
+      <c r="AU62" s="62"/>
+    </row>
+    <row r="63" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF63" s="13">
         <v>61</v>
       </c>
-      <c r="AG63" s="44"/>
-      <c r="AH63" s="44"/>
-      <c r="AI63" s="44"/>
-      <c r="AJ63" s="44"/>
-      <c r="AK63" s="44"/>
-      <c r="AL63" s="44"/>
-      <c r="AM63" s="59"/>
-      <c r="AO63" s="48"/>
-      <c r="AQ63"/>
-      <c r="AT63" s="64"/>
-    </row>
-    <row r="64" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG63" s="43"/>
+      <c r="AH63" s="43"/>
+      <c r="AI63" s="43"/>
+      <c r="AJ63" s="43"/>
+      <c r="AK63" s="43"/>
+      <c r="AL63" s="43"/>
+      <c r="AM63" s="57"/>
+      <c r="AO63" s="47"/>
+      <c r="AP63" s="47"/>
+      <c r="AR63"/>
+      <c r="AU63" s="62"/>
+    </row>
+    <row r="64" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF64" s="13">
         <v>62</v>
       </c>
-      <c r="AG64" s="44"/>
-      <c r="AH64" s="44"/>
-      <c r="AI64" s="44"/>
-      <c r="AJ64" s="44"/>
-      <c r="AK64" s="44"/>
-      <c r="AL64" s="44"/>
-      <c r="AM64" s="59"/>
-      <c r="AO64" s="48"/>
-      <c r="AQ64"/>
-      <c r="AT64" s="64"/>
-    </row>
-    <row r="65" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG64" s="43"/>
+      <c r="AH64" s="43"/>
+      <c r="AI64" s="43"/>
+      <c r="AJ64" s="43"/>
+      <c r="AK64" s="43"/>
+      <c r="AL64" s="43"/>
+      <c r="AM64" s="57"/>
+      <c r="AO64" s="47"/>
+      <c r="AP64" s="47"/>
+      <c r="AR64"/>
+      <c r="AU64" s="62"/>
+    </row>
+    <row r="65" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF65" s="13">
         <v>63</v>
       </c>
-      <c r="AG65" s="44"/>
-      <c r="AH65" s="44"/>
-      <c r="AI65" s="44"/>
-      <c r="AJ65" s="44"/>
-      <c r="AK65" s="44"/>
-      <c r="AL65" s="44"/>
-      <c r="AM65" s="59"/>
-      <c r="AO65" s="48"/>
-      <c r="AQ65"/>
-      <c r="AT65" s="64"/>
-    </row>
-    <row r="66" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG65" s="43"/>
+      <c r="AH65" s="43"/>
+      <c r="AI65" s="43"/>
+      <c r="AJ65" s="43"/>
+      <c r="AK65" s="43"/>
+      <c r="AL65" s="43"/>
+      <c r="AM65" s="57"/>
+      <c r="AO65" s="47"/>
+      <c r="AP65" s="47"/>
+      <c r="AR65"/>
+      <c r="AU65" s="62"/>
+    </row>
+    <row r="66" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF66" s="13">
         <v>64</v>
       </c>
-      <c r="AG66" s="44"/>
-      <c r="AH66" s="44"/>
-      <c r="AI66" s="44"/>
-      <c r="AJ66" s="44"/>
-      <c r="AK66" s="44"/>
-      <c r="AL66" s="44"/>
-      <c r="AM66" s="59"/>
-      <c r="AO66" s="48"/>
-      <c r="AQ66"/>
-      <c r="AT66" s="64"/>
-    </row>
-    <row r="67" spans="32:46" x14ac:dyDescent="0.3">
+      <c r="AG66" s="43"/>
+      <c r="AH66" s="43"/>
+      <c r="AI66" s="43"/>
+      <c r="AJ66" s="43"/>
+      <c r="AK66" s="43"/>
+      <c r="AL66" s="43"/>
+      <c r="AM66" s="57"/>
+      <c r="AO66" s="47"/>
+      <c r="AP66" s="47"/>
+      <c r="AR66"/>
+      <c r="AU66" s="62"/>
+    </row>
+    <row r="67" spans="32:47" x14ac:dyDescent="0.3">
       <c r="AF67" s="13">
         <v>65</v>
       </c>
-      <c r="AG67" s="44"/>
-      <c r="AH67" s="44"/>
-      <c r="AI67" s="44"/>
-      <c r="AJ67" s="44"/>
-      <c r="AK67" s="44"/>
-      <c r="AL67" s="44"/>
-      <c r="AM67" s="59"/>
-      <c r="AO67" s="48"/>
-      <c r="AQ67"/>
-      <c r="AT67" s="64"/>
-    </row>
-    <row r="68" spans="32:46" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AG67" s="43"/>
+      <c r="AH67" s="43"/>
+      <c r="AI67" s="43"/>
+      <c r="AJ67" s="43"/>
+      <c r="AK67" s="43"/>
+      <c r="AL67" s="43"/>
+      <c r="AM67" s="57"/>
+      <c r="AO67" s="47"/>
+      <c r="AP67" s="47"/>
+      <c r="AR67"/>
+      <c r="AU67" s="62"/>
+    </row>
+    <row r="68" spans="32:47" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF68" s="13">
         <v>66</v>
       </c>
-      <c r="AG68" s="60"/>
-      <c r="AH68" s="60"/>
-      <c r="AI68" s="60"/>
-      <c r="AJ68" s="60"/>
-      <c r="AK68" s="60"/>
-      <c r="AL68" s="60"/>
-      <c r="AM68" s="61"/>
-      <c r="AO68" s="48"/>
-      <c r="AQ68"/>
-      <c r="AT68" s="64"/>
+      <c r="AG68" s="58"/>
+      <c r="AH68" s="58"/>
+      <c r="AI68" s="58"/>
+      <c r="AJ68" s="58"/>
+      <c r="AK68" s="58"/>
+      <c r="AL68" s="58"/>
+      <c r="AM68" s="59"/>
+      <c r="AO68" s="47"/>
+      <c r="AP68" s="47"/>
+      <c r="AR68"/>
+      <c r="AU68" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="BH3" r:id="rId1"/>
-    <hyperlink ref="BC3" r:id="rId2"/>
+    <hyperlink ref="BI3" r:id="rId1"/>
+    <hyperlink ref="BD3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
@@ -4101,7 +4274,7 @@
   <dimension ref="A1:T86"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4131,1599 +4304,1600 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="H1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="75">
+        <v>1</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="H2" s="75">
+        <v>9</v>
+      </c>
+      <c r="I2" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="49"/>
+      <c r="O2" s="75">
+        <v>14</v>
+      </c>
+      <c r="P2" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="R2" s="49"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="82"/>
+      <c r="B3" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="S3" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="82"/>
+      <c r="B4" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="H1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="77">
-        <v>1</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="H2" s="77">
-        <v>9</v>
-      </c>
-      <c r="I2" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" s="50"/>
-      <c r="O2" s="77">
-        <v>14</v>
-      </c>
-      <c r="P2" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="R2" s="50"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="84"/>
-      <c r="B3" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="C4" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="84">
+        <v>2</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q3" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="R3" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="S3" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="T3" s="43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="84"/>
-      <c r="B4" s="86" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="86">
+      <c r="J4" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="50">
+        <v>5</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="R4" s="50">
+        <v>3</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="T4" s="96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="82"/>
+      <c r="B5" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="84">
         <v>2</v>
       </c>
-      <c r="E4" s="86" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="97" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" s="51">
-        <v>5</v>
-      </c>
-      <c r="L4" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="M4" s="97" t="s">
-        <v>138</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q4" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="R4" s="51">
-        <v>3</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="T4" s="98" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="84"/>
-      <c r="B5" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="86">
-        <v>2</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="86"/>
+      <c r="E5" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="84"/>
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="K5" s="51">
+      <c r="I5" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="K5" s="50">
         <v>16</v>
       </c>
-      <c r="L5" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M5" s="44"/>
+      <c r="L5" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M5" s="43"/>
       <c r="O5">
         <v>2</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="R5" s="51">
+      <c r="Q5" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="50">
         <v>120</v>
       </c>
-      <c r="S5" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="T5" s="44"/>
+      <c r="S5" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="43"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H6">
         <v>3</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="K6" s="51">
+      <c r="J6" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="K6" s="50">
         <v>4</v>
       </c>
-      <c r="L6" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M6" s="44"/>
+      <c r="L6" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="43"/>
       <c r="O6">
         <v>3</v>
       </c>
-      <c r="P6" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q6" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="R6" s="51">
+      <c r="P6" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="R6" s="50">
         <v>50</v>
       </c>
-      <c r="S6" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="T6" s="44"/>
+      <c r="S6" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="T6" s="43"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="77">
+      <c r="A7" s="75">
         <v>2</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="50"/>
+      <c r="B7" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="49"/>
       <c r="H7">
         <v>4</v>
       </c>
-      <c r="I7" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="K7" s="51">
+      <c r="I7" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="K7" s="50">
         <v>3</v>
       </c>
-      <c r="L7" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M7" s="44"/>
+      <c r="L7" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="43"/>
       <c r="O7">
         <v>4</v>
       </c>
-      <c r="P7" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q7" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="R7" s="51">
+      <c r="P7" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q7" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" s="50">
         <v>256</v>
       </c>
-      <c r="S7" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="T7" s="44"/>
+      <c r="S7" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="T7" s="43"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>118</v>
+      <c r="B8" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>106</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="K8" s="51">
+      <c r="J8" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="50">
         <v>5</v>
       </c>
-      <c r="L8" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M8" s="44"/>
+      <c r="L8" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="51">
-        <v>1</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="O9" s="77">
+      <c r="C9" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="50">
+        <v>1</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="O9" s="75">
         <v>15</v>
       </c>
-      <c r="P9" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="R9" s="50"/>
+      <c r="P9" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="R9" s="49"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="51">
+      <c r="C10" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="50">
+        <v>5</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="H10" s="75">
+        <v>10</v>
+      </c>
+      <c r="I10" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="49"/>
+      <c r="P10" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q10" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="T10" s="42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="68"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="I11" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="R11" s="50">
+        <v>16</v>
+      </c>
+      <c r="S11" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="T11" s="43"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="75">
+        <v>3</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="K12" s="50">
         <v>4</v>
       </c>
-      <c r="E10" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="44"/>
-      <c r="H10" s="77">
-        <v>10</v>
-      </c>
-      <c r="I10" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="K10" s="50"/>
-      <c r="P10" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q10" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="R10" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="S10" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="T10" s="43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="70"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="I11" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q11" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="R11" s="51">
-        <v>16</v>
-      </c>
-      <c r="S11" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="T11" s="44"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="77">
-        <v>3</v>
-      </c>
-      <c r="B12" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="50"/>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="K12" s="51">
-        <v>4</v>
-      </c>
-      <c r="L12" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="M12" s="97" t="s">
-        <v>138</v>
+      <c r="L12" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="95" t="s">
+        <v>126</v>
       </c>
       <c r="O12">
         <v>2</v>
       </c>
-      <c r="P12" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q12" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="R12" s="51">
+      <c r="P12" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q12" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="R12" s="50">
         <v>120</v>
       </c>
-      <c r="S12" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="T12" s="44"/>
+      <c r="S12" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="T12" s="43"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>118</v>
+      <c r="B13" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>106</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="J13" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="K13" s="51">
-        <v>1</v>
-      </c>
-      <c r="L13" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M13" s="44"/>
+      <c r="I13" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="50">
+        <v>1</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" s="43"/>
       <c r="O13">
         <v>3</v>
       </c>
-      <c r="P13" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q13" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="R13" s="51">
+      <c r="P13" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="R13" s="50">
         <v>50</v>
       </c>
-      <c r="S13" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="T13" s="44"/>
+      <c r="S13" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="T13" s="43"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" s="51">
-        <v>1</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="44"/>
+      <c r="B14" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="50">
+        <v>1</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="43"/>
       <c r="H14">
         <v>3</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="K14" s="51">
-        <v>1</v>
-      </c>
-      <c r="L14" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" s="44"/>
+      <c r="J14" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="50">
+        <v>1</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="43"/>
       <c r="O14">
         <v>4</v>
       </c>
-      <c r="P14" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="R14" s="51">
+      <c r="P14" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q14" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="50">
         <v>256</v>
       </c>
-      <c r="S14" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="T14" s="44"/>
+      <c r="S14" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="T14" s="43"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="51">
-        <v>6</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="44"/>
+      <c r="B15" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="50">
+        <v>7</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="43"/>
       <c r="H15">
         <v>4</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="K15" s="51">
+      <c r="J15" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="50">
         <v>7</v>
       </c>
-      <c r="L15" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M15" s="44"/>
+      <c r="L15" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" s="43"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="70"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
       <c r="H16">
         <v>5</v>
       </c>
-      <c r="I16" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="K16" s="51">
-        <v>1</v>
-      </c>
-      <c r="L16" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" s="44"/>
-      <c r="O16" s="77">
+      <c r="I16" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="50">
+        <v>1</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M16" s="43"/>
+      <c r="O16" s="75">
         <v>16</v>
       </c>
-      <c r="P16" s="72" t="s">
-        <v>158</v>
+      <c r="P16" s="70" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="77">
+      <c r="A17" s="75">
         <v>4</v>
       </c>
-      <c r="B17" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="50"/>
+      <c r="B17" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="49"/>
       <c r="H17">
         <v>6</v>
       </c>
-      <c r="I17" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="K17" s="51">
+      <c r="I17" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="50">
         <v>3</v>
       </c>
-      <c r="L17" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M17" s="44"/>
-      <c r="P17" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="R17" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="S17" s="43" t="s">
+      <c r="L17" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="T17" s="43" t="s">
-        <v>118</v>
+      <c r="M17" s="43"/>
+      <c r="P17" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="R17" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="S17" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="T17" s="42" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>118</v>
+      <c r="B18" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>106</v>
       </c>
       <c r="H18">
         <v>7</v>
       </c>
-      <c r="I18" s="44" t="s">
-        <v>146</v>
-      </c>
-      <c r="J18" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="K18" s="51">
+      <c r="I18" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" s="50">
         <v>2</v>
       </c>
-      <c r="L18" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M18" s="44"/>
+      <c r="L18" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" s="43"/>
       <c r="O18">
         <v>1</v>
       </c>
-      <c r="P18" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>123</v>
-      </c>
-      <c r="R18">
+      <c r="P18" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q18" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="R18" s="43">
         <v>4</v>
       </c>
-      <c r="S18" s="44" t="s">
-        <v>98</v>
-      </c>
+      <c r="S18" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" s="43"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="51">
-        <v>1</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="44"/>
+      <c r="C19" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="50">
+        <v>1</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="43"/>
       <c r="H19">
         <v>8</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="J19" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="51">
+      <c r="J19" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="50">
         <v>3</v>
       </c>
-      <c r="L19" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M19" s="44"/>
+      <c r="L19" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M19" s="43"/>
       <c r="O19">
         <v>2</v>
       </c>
-      <c r="P19" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="R19" s="44">
+      <c r="P19" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q19" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="43">
         <v>50</v>
       </c>
-      <c r="S19" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="T19" s="44"/>
+      <c r="S19" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="T19" s="43"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="51">
-        <v>12</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="44"/>
+      <c r="B20" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="50">
+        <v>8</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="43"/>
       <c r="O20">
         <v>3</v>
       </c>
-      <c r="P20" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q20" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="R20" s="44">
+      <c r="P20" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="43">
         <v>256</v>
       </c>
-      <c r="S20" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="T20" s="44" t="s">
-        <v>166</v>
+      <c r="S20" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="T20" s="43" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="70"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="H21" s="77">
+      <c r="B21" s="68"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="H21" s="75">
         <v>11</v>
       </c>
-      <c r="I21" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="K21" s="50"/>
+      <c r="I21" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="49"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="77">
+      <c r="A22" s="75">
         <v>5</v>
       </c>
-      <c r="B22" s="72" t="s">
-        <v>185</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="I22" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="K22" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="M22" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="O22" s="77">
+      <c r="B22" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="I22" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="O22" s="75">
         <v>17</v>
       </c>
-      <c r="P22" s="72" t="s">
-        <v>150</v>
+      <c r="P22" s="70" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>118</v>
+      <c r="B23" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>106</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="K23" s="51">
+      <c r="J23" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="50">
         <v>7</v>
       </c>
-      <c r="L23" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="M23" s="44"/>
-      <c r="P23" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q23" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="R23" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="S23" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="T23" s="43" t="s">
-        <v>118</v>
+      <c r="L23" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="M23" s="43"/>
+      <c r="P23" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q23" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="R23" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="S23" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="T23" s="42" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="51">
+      <c r="C24" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="50">
         <v>3</v>
       </c>
-      <c r="E24" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="44"/>
+      <c r="E24" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="43"/>
       <c r="H24">
         <v>2</v>
       </c>
-      <c r="I24" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="J24" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="K24" s="44">
-        <v>1</v>
-      </c>
-      <c r="L24" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="M24" s="44"/>
+      <c r="I24" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" s="43">
+        <v>1</v>
+      </c>
+      <c r="L24" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" s="43"/>
       <c r="O24">
         <v>1</v>
       </c>
-      <c r="P24" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q24" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="R24" s="44">
+      <c r="P24" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q24" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="R24" s="43">
         <v>4</v>
       </c>
-      <c r="S24" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="T24" s="44"/>
+      <c r="S24" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="T24" s="43"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="51">
+      <c r="C25" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="50">
         <v>9</v>
       </c>
-      <c r="E25" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="44"/>
+      <c r="E25" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="43"/>
       <c r="H25">
         <v>3</v>
       </c>
-      <c r="I25" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="J25" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="K25" s="51">
+      <c r="I25" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="50">
         <v>40</v>
       </c>
-      <c r="L25" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="M25" s="44"/>
+      <c r="L25" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="43"/>
       <c r="O25">
         <v>2</v>
       </c>
-      <c r="P25" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q25" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="R25" s="44">
-        <v>1</v>
-      </c>
-      <c r="S25" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="T25" s="44"/>
+      <c r="P25" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q25" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="R25" s="43">
+        <v>1</v>
+      </c>
+      <c r="S25" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="T25" s="43"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>4</v>
       </c>
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="K26" s="51">
-        <v>1</v>
-      </c>
-      <c r="L26" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M26" s="44"/>
+      <c r="J26" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" s="50">
+        <v>1</v>
+      </c>
+      <c r="L26" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="43"/>
       <c r="O26">
         <v>3</v>
       </c>
-      <c r="P26" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q26" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="R26" s="51">
+      <c r="P26" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q26" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="R26" s="50">
         <v>3</v>
       </c>
-      <c r="S26" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="T26" s="44"/>
+      <c r="S26" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="T26" s="43"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="77">
+      <c r="A27" s="75">
         <v>6</v>
       </c>
-      <c r="B27" s="87" t="s">
-        <v>186</v>
+      <c r="B27" s="85" t="s">
+        <v>174</v>
       </c>
       <c r="O27">
         <v>4</v>
       </c>
-      <c r="P27" s="44" t="s">
+      <c r="P27" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="Q27" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="R27" s="51">
+      <c r="Q27" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="R27" s="50">
         <v>5</v>
       </c>
-      <c r="S27" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="T27" s="44"/>
+      <c r="S27" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="T27" s="43"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B28" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="H28" s="77">
+      <c r="B28" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="75">
         <v>12</v>
       </c>
-      <c r="I28" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="J28" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="K28" s="50"/>
+      <c r="I28" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" s="49"/>
       <c r="O28">
         <v>5</v>
       </c>
-      <c r="P28" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q28" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="R28" s="44">
+      <c r="P28" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q28" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="R28" s="43">
         <v>200</v>
       </c>
-      <c r="S28" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="T28" s="44" t="s">
-        <v>161</v>
+      <c r="S28" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="T28" s="43" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" s="51">
+      <c r="B29" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="50">
         <v>3</v>
       </c>
-      <c r="E29" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="97" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="J29" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="K29" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="L29" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="M29" s="43" t="s">
-        <v>118</v>
+      <c r="E29" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" s="42" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="44"/>
+      <c r="D30" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="43"/>
       <c r="H30">
         <v>1</v>
       </c>
-      <c r="I30" s="44" t="s">
+      <c r="I30" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="K30" s="51">
-        <v>1</v>
-      </c>
-      <c r="L30" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="M30" s="44"/>
-      <c r="O30" s="77">
+      <c r="J30" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="K30" s="50">
+        <v>1</v>
+      </c>
+      <c r="L30" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" s="43"/>
+      <c r="O30" s="75">
         <v>18</v>
       </c>
-      <c r="P30" s="72" t="s">
-        <v>194</v>
+      <c r="P30" s="70" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>2</v>
       </c>
-      <c r="I31" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="J31" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="K31" s="51">
+      <c r="I31" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" s="50">
         <v>3</v>
       </c>
-      <c r="L31" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="M31" s="44"/>
-      <c r="P31" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q31" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="R31" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="S31" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="T31" s="43" t="s">
-        <v>118</v>
+      <c r="L31" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" s="43"/>
+      <c r="P31" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q31" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="R31" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="S31" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="T31" s="42" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="77">
+      <c r="A32" s="75">
         <v>7</v>
       </c>
-      <c r="B32" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="50"/>
+      <c r="B32" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="49"/>
       <c r="H32">
         <v>3</v>
       </c>
-      <c r="I32" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="J32" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="K32" s="51">
+      <c r="I32" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="K32" s="50">
         <v>16</v>
       </c>
-      <c r="L32" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="M32" s="44"/>
+      <c r="L32" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M32" s="43"/>
       <c r="O32">
         <v>1</v>
       </c>
-      <c r="P32" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q32" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="R32" s="44">
-        <v>1</v>
-      </c>
-      <c r="S32" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="T32" s="44"/>
+      <c r="P32" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q32" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="R32" s="43">
+        <v>1</v>
+      </c>
+      <c r="S32" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="T32" s="43"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B33" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="K33" s="50"/>
+      <c r="B33" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="49"/>
       <c r="O33">
         <v>2</v>
       </c>
-      <c r="P33" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q33" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="R33" s="44">
-        <v>15</v>
-      </c>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
+      <c r="P33" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q33" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="R33" s="43">
+        <v>25</v>
+      </c>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="51">
+      <c r="C34" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="50">
         <v>5</v>
       </c>
-      <c r="E34" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="97" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" s="77">
+      <c r="E34" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="75">
         <v>13</v>
       </c>
-      <c r="I34" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="J34" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34" s="50"/>
+      <c r="I34" s="70" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" s="49"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="44"/>
-      <c r="I35" s="43" t="s">
+      <c r="D35" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="J35" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="K35" s="52" t="s">
+      <c r="F35" s="43"/>
+      <c r="I35" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="L35" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="M35" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="O35" s="75">
+        <v>19</v>
+      </c>
+      <c r="P35" s="70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B36" s="68"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="L35" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="M35" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="O35" s="77">
-        <v>19</v>
-      </c>
-      <c r="P35" s="72" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B36" s="70"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="J36" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="K36" s="51">
+      <c r="J36" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="K36" s="50">
         <v>16</v>
       </c>
-      <c r="L36" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="M36" s="44"/>
-      <c r="P36" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q36" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="R36" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="S36" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="T36" s="43" t="s">
-        <v>118</v>
+      <c r="L36" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="M36" s="43"/>
+      <c r="P36" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q36" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="R36" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="S36" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="T36" s="42" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="77">
+      <c r="A37" s="75">
         <v>8</v>
       </c>
-      <c r="B37" s="72" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="50"/>
+      <c r="B37" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="D37" s="49"/>
       <c r="H37">
         <v>2</v>
       </c>
-      <c r="I37" s="44" t="s">
+      <c r="I37" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="K37" s="51">
+      <c r="J37" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="K37" s="50">
         <v>7</v>
       </c>
-      <c r="L37" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="M37" s="44"/>
+      <c r="L37" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="M37" s="43"/>
       <c r="O37">
         <v>1</v>
       </c>
-      <c r="P37" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q37" s="44" t="s">
-        <v>187</v>
-      </c>
-      <c r="R37" s="44">
+      <c r="P37" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q37" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="R37" s="43">
         <v>16</v>
       </c>
-      <c r="S37" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="T37" s="44"/>
+      <c r="S37" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="T37" s="43"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B38" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>118</v>
+      <c r="B38" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>106</v>
       </c>
       <c r="H38">
         <v>3</v>
       </c>
-      <c r="I38" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="J38" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="K38" s="51">
-        <v>1</v>
-      </c>
-      <c r="L38" s="53" t="s">
-        <v>129</v>
-      </c>
-      <c r="M38" s="44"/>
+      <c r="I38" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="K38" s="50">
+        <v>1</v>
+      </c>
+      <c r="L38" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="M38" s="43"/>
       <c r="O38">
         <v>2</v>
       </c>
-      <c r="P38" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q38" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="R38" s="44">
-        <v>1</v>
-      </c>
-      <c r="S38" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="T38" s="44"/>
+      <c r="P38" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q38" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="R38" s="43">
+        <v>1</v>
+      </c>
+      <c r="S38" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="T38" s="43"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
-      <c r="B39" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="51">
-        <v>1</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="F39" s="44"/>
+      <c r="B39" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D39" s="50">
+        <v>1</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="43"/>
       <c r="O39">
         <v>3</v>
       </c>
-      <c r="P39" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q39" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="R39" s="44">
+      <c r="P39" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q39" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="R39" s="43">
         <v>498</v>
       </c>
-      <c r="S39" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="T39" s="44"/>
+      <c r="S39" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="T39" s="43"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
-      <c r="B40" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="44" t="s">
+      <c r="B40" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="44"/>
+      <c r="D40" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="43"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="44"/>
-      <c r="O41" s="77">
+      <c r="D41" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="43"/>
+      <c r="O41" s="75">
         <v>20</v>
       </c>
-      <c r="P41" s="72" t="s">
-        <v>205</v>
+      <c r="P41" s="70" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P42" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q42" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="R42" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="S42" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="T42" s="43" t="s">
-        <v>118</v>
+      <c r="P42" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q42" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="R42" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="S42" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="T42" s="42" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D43" s="50"/>
+      <c r="D43" s="49"/>
       <c r="O43">
         <v>1</v>
       </c>
-      <c r="P43" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q43" s="44" t="s">
-        <v>188</v>
-      </c>
-      <c r="R43" s="51">
+      <c r="P43" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q43" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="R43" s="50">
         <v>3</v>
       </c>
-      <c r="S43" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="T43" s="44"/>
+      <c r="S43" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="T43" s="43"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O44">
         <v>2</v>
       </c>
-      <c r="P44" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q44" s="44" t="s">
-        <v>197</v>
-      </c>
-      <c r="R44" s="44">
-        <v>1</v>
-      </c>
-      <c r="S44" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="T44" s="44"/>
+      <c r="P44" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q44" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="R44" s="43">
+        <v>1</v>
+      </c>
+      <c r="S44" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="T44" s="43"/>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="O45">
         <v>3</v>
       </c>
-      <c r="P45" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q45" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="R45" s="44">
+      <c r="P45" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q45" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="R45" s="43">
         <v>498</v>
       </c>
-      <c r="S45" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="T45" s="44"/>
+      <c r="S45" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="T45" s="43"/>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D86" s="50"/>
+      <c r="D86" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
